--- a/alola_form.xlsx
+++ b/alola_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t>HP</t>
   </si>
@@ -159,6 +159,122 @@
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Rattata</t>
+  </si>
+  <si>
+    <t>Alola Raticate</t>
+  </si>
+  <si>
+    <t>Alola Raichu</t>
+  </si>
+  <si>
+    <t>Alola Sandshrew</t>
+  </si>
+  <si>
+    <t>Alola Sandslash</t>
+  </si>
+  <si>
+    <t>Alola Vulpix</t>
+  </si>
+  <si>
+    <t>Alola Ninetales</t>
+  </si>
+  <si>
+    <t>Alola Diglett</t>
+  </si>
+  <si>
+    <t>Alola Dugtrio</t>
+  </si>
+  <si>
+    <t>Alola Meowth</t>
+  </si>
+  <si>
+    <t>Alola Persian</t>
+  </si>
+  <si>
+    <t>Alola Geodude</t>
+  </si>
+  <si>
+    <t>Alola Graveler</t>
+  </si>
+  <si>
+    <t>Alola Golem</t>
+  </si>
+  <si>
+    <t>Alola Grimer</t>
+  </si>
+  <si>
+    <t>Alola Muk</t>
+  </si>
+  <si>
+    <t>Alola Exeggutor</t>
+  </si>
+  <si>
+    <t>Alola Marowak</t>
+  </si>
+  <si>
+    <t>阿罗拉小拉达</t>
+  </si>
+  <si>
+    <t>阿罗拉拉达</t>
+  </si>
+  <si>
+    <t>阿罗拉雷丘</t>
+  </si>
+  <si>
+    <t>阿罗拉穿山鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉穿山王</t>
+  </si>
+  <si>
+    <t>阿罗拉六尾</t>
+  </si>
+  <si>
+    <t>阿罗拉九尾</t>
+  </si>
+  <si>
+    <t>阿罗拉地鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉三地鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉喵喵</t>
+  </si>
+  <si>
+    <t>阿罗拉猫老大</t>
+  </si>
+  <si>
+    <t>阿罗拉小拳石</t>
+  </si>
+  <si>
+    <t>阿罗拉隆隆石</t>
+  </si>
+  <si>
+    <t>阿罗拉隆隆岩</t>
+  </si>
+  <si>
+    <t>阿罗拉臭泥</t>
+  </si>
+  <si>
+    <t>阿罗拉臭臭泥</t>
+  </si>
+  <si>
+    <t>阿罗拉椰蛋树</t>
+  </si>
+  <si>
+    <t>阿罗拉嘎啦嘎啦</t>
   </si>
 </sst>
 </file>
@@ -577,872 +693,987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="O1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>19</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>56</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>35</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>35</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>72</v>
       </c>
-      <c r="H2">
-        <f>SUM(B2:G2)</f>
+      <c r="I2">
+        <f>SUM(C2:H2)</f>
         <v>253</v>
       </c>
-      <c r="I2" s="3">
-        <f>2*B2</f>
+      <c r="J2" s="3">
+        <f>2*C2</f>
         <v>60</v>
       </c>
-      <c r="J2" s="3">
-        <f>ROUND((1+(G2-75)/500)*(ROUND(0.25*(7*MAX(E2,C2)+MIN(E2,C2)),0)),0)</f>
+      <c r="K2" s="3">
+        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(F2,D2)+MIN(F2,D2)),0)),0)</f>
         <v>103</v>
       </c>
-      <c r="K2" s="3">
-        <f>ROUND((1+(G2-75)/500)*(ROUND(0.25*(7*MAX(F2,D2)+MIN(F2,D2)),0)),0)</f>
+      <c r="L2" s="3">
+        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(G2,E2)+MIN(G2,E2)),0)),0)</f>
         <v>70</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2">
         <v>75</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>71</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>70</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>80</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>77</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H19" si="0">SUM(B3:G3)</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I19" si="0">SUM(C3:H3)</f>
         <v>413</v>
       </c>
-      <c r="I3" s="3">
-        <f t="shared" ref="I3:I19" si="1">2*B3</f>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J19" si="1">2*C3</f>
         <v>150</v>
       </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J19" si="2">ROUND((1+(G3-75)/500)*(ROUND(0.25*(7*MAX(E3,C3)+MIN(E3,C3)),0)),0)</f>
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K19" si="2">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(F3,D3)+MIN(F3,D3)),0)),0)</f>
         <v>135</v>
       </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K19" si="3">ROUND((1+(G3-75)/500)*(ROUND(0.25*(7*MAX(F3,D3)+MIN(F3,D3)),0)),0)</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L19" si="3">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(G3,E3)+MIN(G3,E3)),0)),0)</f>
         <v>159</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>26</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="2">
         <v>60</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>85</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>95</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>85</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>110</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f t="shared" si="0"/>
         <v>485</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="3"/>
         <v>172</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>27</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2">
         <v>50</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>75</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>90</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>10</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>35</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>40</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="O5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>28</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2">
         <v>75</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>100</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>120</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>25</v>
-      </c>
-      <c r="F6" s="2">
-        <v>65</v>
       </c>
       <c r="G6" s="2">
         <v>65</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
+        <v>65</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <f t="shared" si="2"/>
         <v>177</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="3"/>
         <v>221</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="O6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>37</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="2">
         <v>38</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>41</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>40</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>50</v>
-      </c>
-      <c r="F7" s="2">
-        <v>65</v>
       </c>
       <c r="G7" s="2">
         <v>65</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
+        <v>65</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="J7" s="3">
+      <c r="K7" s="3">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>15</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>38</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2">
         <v>73</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>67</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>75</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>81</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>100</v>
       </c>
-      <c r="G8" s="2">
+      <c r="H8" s="2">
         <v>109</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <f t="shared" si="0"/>
         <v>505</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <f t="shared" si="1"/>
         <v>146</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <f t="shared" si="3"/>
         <v>207</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>16</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="O8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>50</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="C9" s="2">
+      <c r="D9" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>30</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>35</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>45</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>90</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <f t="shared" si="0"/>
         <v>265</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="O9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>51</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2">
         <v>35</v>
       </c>
-      <c r="C10" s="2">
+      <c r="D10" s="2">
         <v>100</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>60</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>50</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>70</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="2">
         <v>110</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <f t="shared" si="2"/>
         <v>201</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
         <v>148</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>52</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2">
         <v>40</v>
-      </c>
-      <c r="C11" s="2">
-        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>35</v>
       </c>
       <c r="E11" s="2">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
         <v>50</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>40</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="2">
         <v>90</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>53</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
         <v>65</v>
-      </c>
-      <c r="C12" s="2">
-        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>60</v>
       </c>
       <c r="E12" s="2">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2">
         <v>75</v>
       </c>
-      <c r="F12" s="2">
+      <c r="G12" s="2">
         <v>65</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="2">
         <v>115</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <f t="shared" si="1"/>
         <v>130</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
         <v>139</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>18</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>74</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
         <v>40</v>
       </c>
-      <c r="C13" s="2">
+      <c r="D13" s="2">
         <v>80</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>100</v>
-      </c>
-      <c r="E13" s="2">
-        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>30</v>
       </c>
       <c r="G13" s="2">
+        <v>30</v>
+      </c>
+      <c r="H13" s="2">
         <v>20</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <f t="shared" si="3"/>
         <v>163</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>19</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="O13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>75</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="2">
         <v>55</v>
       </c>
-      <c r="C14" s="2">
+      <c r="D14" s="2">
         <v>95</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>115</v>
-      </c>
-      <c r="E14" s="2">
-        <v>45</v>
       </c>
       <c r="F14" s="2">
         <v>45</v>
       </c>
       <c r="G14" s="2">
+        <v>45</v>
+      </c>
+      <c r="H14" s="2">
         <v>35</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <f t="shared" si="3"/>
         <v>196</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>19</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="O14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>76</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
         <v>80</v>
       </c>
-      <c r="C15" s="2">
+      <c r="D15" s="2">
         <v>120</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>130</v>
       </c>
-      <c r="E15" s="2">
+      <c r="F15" s="2">
         <v>55</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>65</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="2">
         <v>45</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <f t="shared" si="2"/>
         <v>211</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <f t="shared" si="3"/>
         <v>229</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>19</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>88</v>
       </c>
-      <c r="B16" s="2">
-        <v>80</v>
+      <c r="B16" t="s">
+        <v>58</v>
       </c>
       <c r="C16" s="2">
         <v>80</v>
       </c>
       <c r="D16" s="2">
+        <v>80</v>
+      </c>
+      <c r="E16" s="2">
         <v>50</v>
       </c>
-      <c r="E16" s="2">
+      <c r="F16" s="2">
         <v>40</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>50</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="2">
         <v>25</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <f t="shared" si="0"/>
         <v>325</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>20</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="O16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>89</v>
       </c>
-      <c r="B17" s="2">
-        <v>105</v>
+      <c r="B17" t="s">
+        <v>59</v>
       </c>
       <c r="C17" s="2">
         <v>105</v>
       </c>
       <c r="D17" s="2">
+        <v>105</v>
+      </c>
+      <c r="E17" s="2">
         <v>75</v>
       </c>
-      <c r="E17" s="2">
+      <c r="F17" s="2">
         <v>65</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="2">
+      <c r="H17" s="2">
         <v>50</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
         <v>210</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <f t="shared" si="3"/>
         <v>184</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="O17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>103</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2">
         <v>95</v>
       </c>
-      <c r="C18" s="2">
+      <c r="D18" s="2">
         <v>105</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>85</v>
       </c>
-      <c r="E18" s="2">
+      <c r="F18" s="2">
         <v>125</v>
       </c>
-      <c r="F18" s="2">
+      <c r="G18" s="2">
         <v>75</v>
       </c>
-      <c r="G18" s="2">
+      <c r="H18" s="2">
         <v>45</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="0"/>
         <v>530</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <f t="shared" si="1"/>
         <v>190</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <f t="shared" si="3"/>
         <v>158</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>21</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="O18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>105</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2">
         <v>60</v>
       </c>
-      <c r="C19" s="2">
+      <c r="D19" s="2">
         <v>80</v>
       </c>
-      <c r="D19" s="2">
+      <c r="E19" s="2">
         <v>110</v>
       </c>
-      <c r="E19" s="2">
+      <c r="F19" s="2">
         <v>50</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>80</v>
       </c>
-      <c r="G19" s="2">
+      <c r="H19" s="2">
         <v>45</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="0"/>
         <v>425</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/alola_form.xlsx
+++ b/alola_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>HP</t>
   </si>
@@ -275,6 +275,50 @@
   </si>
   <si>
     <t>阿罗拉嘎啦嘎啦</t>
+  </si>
+  <si>
+    <t>fast move</t>
+  </si>
+  <si>
+    <t>charge move</t>
+  </si>
+  <si>
+    <t>fast move no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge move no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Pulse(--)Seed Bomb(--)Solar Beam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,53,55,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy fast</t>
+  </si>
+  <si>
+    <t>legacy charge</t>
+  </si>
+  <si>
+    <t>legacy fast no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy charge no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Seed(--)Dragon Tail(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,9,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -349,22 +393,60 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="21">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -693,15 +775,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O19"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -742,13 +824,37 @@
         <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>19</v>
       </c>
@@ -792,14 +898,14 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
+      <c r="R2" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>20</v>
       </c>
@@ -843,14 +949,14 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="R3" t="s">
+        <v>63</v>
+      </c>
+      <c r="W3" t="s">
         <v>24</v>
       </c>
-      <c r="O3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>26</v>
       </c>
@@ -894,14 +1000,14 @@
       <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" t="s">
+      <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
         <v>27</v>
       </c>
@@ -945,14 +1051,14 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" t="s">
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" t="s">
         <v>26</v>
       </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>28</v>
       </c>
@@ -996,14 +1102,14 @@
       <c r="M6" t="s">
         <v>14</v>
       </c>
-      <c r="N6" t="s">
+      <c r="R6" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" t="s">
         <v>27</v>
       </c>
-      <c r="O6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
         <v>37</v>
       </c>
@@ -1047,14 +1153,14 @@
       <c r="M7" t="s">
         <v>15</v>
       </c>
-      <c r="N7" t="s">
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="W7" t="s">
         <v>28</v>
       </c>
-      <c r="O7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
         <v>38</v>
       </c>
@@ -1098,14 +1204,14 @@
       <c r="M8" t="s">
         <v>16</v>
       </c>
-      <c r="N8" t="s">
+      <c r="R8" t="s">
+        <v>68</v>
+      </c>
+      <c r="W8" t="s">
         <v>29</v>
       </c>
-      <c r="O8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1149,14 +1255,14 @@
       <c r="M9" t="s">
         <v>17</v>
       </c>
-      <c r="N9" t="s">
+      <c r="R9" t="s">
+        <v>69</v>
+      </c>
+      <c r="W9" t="s">
         <v>30</v>
       </c>
-      <c r="O9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
         <v>51</v>
       </c>
@@ -1200,14 +1306,14 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
-      <c r="N10" t="s">
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" t="s">
         <v>31</v>
       </c>
-      <c r="O10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>52</v>
       </c>
@@ -1251,14 +1357,14 @@
       <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="N11" t="s">
+      <c r="R11" t="s">
+        <v>71</v>
+      </c>
+      <c r="W11" t="s">
         <v>32</v>
       </c>
-      <c r="O11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>53</v>
       </c>
@@ -1302,14 +1408,14 @@
       <c r="M12" t="s">
         <v>18</v>
       </c>
-      <c r="N12" t="s">
+      <c r="R12" t="s">
+        <v>72</v>
+      </c>
+      <c r="W12" t="s">
         <v>33</v>
       </c>
-      <c r="O12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
         <v>74</v>
       </c>
@@ -1353,14 +1459,14 @@
       <c r="M13" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
+      <c r="R13" t="s">
+        <v>73</v>
+      </c>
+      <c r="W13" t="s">
         <v>34</v>
       </c>
-      <c r="O13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
         <v>75</v>
       </c>
@@ -1404,14 +1510,14 @@
       <c r="M14" t="s">
         <v>19</v>
       </c>
-      <c r="N14" t="s">
+      <c r="R14" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" t="s">
         <v>35</v>
       </c>
-      <c r="O14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
         <v>76</v>
       </c>
@@ -1455,14 +1561,14 @@
       <c r="M15" t="s">
         <v>19</v>
       </c>
-      <c r="N15" t="s">
+      <c r="R15" t="s">
+        <v>75</v>
+      </c>
+      <c r="W15" t="s">
         <v>36</v>
       </c>
-      <c r="O15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
         <v>88</v>
       </c>
@@ -1506,14 +1612,14 @@
       <c r="M16" t="s">
         <v>20</v>
       </c>
-      <c r="N16" t="s">
+      <c r="R16" t="s">
+        <v>76</v>
+      </c>
+      <c r="W16" t="s">
         <v>37</v>
       </c>
-      <c r="O16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1557,14 +1663,14 @@
       <c r="M17" t="s">
         <v>20</v>
       </c>
-      <c r="N17" t="s">
+      <c r="R17" t="s">
+        <v>77</v>
+      </c>
+      <c r="W17" t="s">
         <v>39</v>
       </c>
-      <c r="O17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
         <v>103</v>
       </c>
@@ -1608,14 +1714,27 @@
       <c r="M18" t="s">
         <v>21</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R18" t="s">
+        <v>78</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="W18" t="s">
         <v>38</v>
       </c>
-      <c r="O18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
         <v>105</v>
       </c>
@@ -1659,14 +1778,14 @@
       <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="N19" t="s">
+      <c r="R19" t="s">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s">
         <v>40</v>
       </c>
-      <c r="O19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>

--- a/alola_form.xlsx
+++ b/alola_form.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
   <si>
     <t>HP</t>
   </si>
@@ -295,30 +295,224 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>legacy fast</t>
+  </si>
+  <si>
+    <t>legacy charge</t>
+  </si>
+  <si>
+    <t>legacy fast no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy charge no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Seed(--)Dragon Tail(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark(--)Volt Switch(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Charge(--)Thunder Punch(--)Psychic(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tackle(--)Quick Attack(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Hyper Fang(--)Shadow Ball(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bite(--)Quick Attack(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Hyper Fang(--)Hyper Beam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Claw(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Gyro Ball(--)Night Slash(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Gyro Ball(--)Bulldoze(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zen Headbutt(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Ice Beam(--)Dark Pulse(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feint Attack(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Ice Beam(--)Dazzling Gleam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud Slap(--)Metal Claw(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig(--)Mud Bomb(--)Rock Tomb(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthquake(--)Mud Bomb(--)Iron Head(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night Slash(--)Dark Pulse(--)Foul Play(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foul Play(--)Dark Pulse(--)Play Rough(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock Slide(--)Rock Tomb(--)Thunderbolt(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock Throw(--)Volt Switch(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderbolt(--)Stone Edge(--)Rock Blast(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone Edge(--)Rock Blast(--)Wild Charge'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Jab(--)Bite(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Gunk Shot(--)Sludge Bomb(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Pulse(--)Gunk Shot(--)Sludge Wave(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex(--)Rock Smash(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone Club(--)Shadow Ball(--)Fire Blast(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scratch(--)Bite(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,38,</t>
+  </si>
+  <si>
+    <t>4,38,</t>
+  </si>
+  <si>
+    <t>10,13,</t>
+  </si>
+  <si>
+    <t>56,35,</t>
+  </si>
+  <si>
+    <t>51,35,</t>
+  </si>
+  <si>
+    <t>5,35,</t>
+  </si>
+  <si>
+    <t>32,56,</t>
+  </si>
+  <si>
+    <t>39,4,</t>
+  </si>
+  <si>
+    <t>53,13,</t>
+  </si>
+  <si>
+    <t>48,4,</t>
+  </si>
+  <si>
+    <t>30,9,</t>
+  </si>
+  <si>
+    <t>27,16,</t>
+  </si>
+  <si>
+    <t>8,80,51,</t>
+  </si>
+  <si>
+    <t>8,80,78,</t>
+  </si>
+  <si>
+    <t>17,16,99,</t>
+  </si>
+  <si>
+    <t>76,110,7,</t>
+  </si>
+  <si>
+    <t>76,110,64,</t>
+  </si>
+  <si>
+    <t>76,72,6,</t>
+  </si>
+  <si>
+    <t>76,72,22,</t>
+  </si>
+  <si>
+    <t>69,66,105,</t>
+  </si>
+  <si>
+    <t>63,66,108,</t>
+  </si>
+  <si>
+    <t>7,6,5,</t>
+  </si>
+  <si>
+    <t>5,6,24,</t>
+  </si>
+  <si>
+    <t>101,105,20,</t>
+  </si>
+  <si>
+    <t>20,104,102,</t>
+  </si>
+  <si>
+    <t>104,102,17,</t>
+  </si>
+  <si>
+    <t>8,91,88,</t>
+  </si>
+  <si>
+    <t>6,91,89,</t>
+  </si>
+  <si>
     <t>9,53,55,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legacy fast</t>
-  </si>
-  <si>
-    <t>legacy charge</t>
-  </si>
-  <si>
-    <t>legacy fast no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legacy charge no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet Seed(--)Dragon Tail(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,9,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65,51,35,</t>
   </si>
 </sst>
 </file>
@@ -393,7 +587,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -415,8 +609,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -424,8 +628,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -437,6 +642,11 @@
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -447,6 +657,11 @@
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -777,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -830,10 +1045,10 @@
         <v>81</v>
       </c>
       <c r="P1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>42</v>
@@ -845,10 +1060,10 @@
         <v>83</v>
       </c>
       <c r="U1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>89</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>11</v>
@@ -898,8 +1113,20 @@
       <c r="M2" t="s">
         <v>12</v>
       </c>
+      <c r="N2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="R2" t="s">
         <v>62</v>
+      </c>
+      <c r="S2" t="s">
+        <v>118</v>
+      </c>
+      <c r="T2" t="s">
+        <v>130</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
@@ -949,8 +1176,20 @@
       <c r="M3" t="s">
         <v>12</v>
       </c>
+      <c r="N3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>95</v>
+      </c>
       <c r="R3" t="s">
         <v>63</v>
+      </c>
+      <c r="S3" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" t="s">
+        <v>131</v>
       </c>
       <c r="W3" t="s">
         <v>24</v>
@@ -1000,8 +1239,20 @@
       <c r="M4" t="s">
         <v>13</v>
       </c>
+      <c r="N4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="R4" t="s">
         <v>64</v>
+      </c>
+      <c r="S4" t="s">
+        <v>120</v>
+      </c>
+      <c r="T4" t="s">
+        <v>132</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
@@ -1051,8 +1302,20 @@
       <c r="M5" t="s">
         <v>14</v>
       </c>
+      <c r="N5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>97</v>
+      </c>
       <c r="R5" t="s">
         <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>121</v>
+      </c>
+      <c r="T5" t="s">
+        <v>133</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
@@ -1102,8 +1365,20 @@
       <c r="M6" t="s">
         <v>14</v>
       </c>
+      <c r="N6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="R6" t="s">
         <v>66</v>
+      </c>
+      <c r="S6" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" t="s">
+        <v>134</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
@@ -1153,8 +1428,20 @@
       <c r="M7" t="s">
         <v>15</v>
       </c>
+      <c r="N7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="R7" t="s">
         <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" t="s">
+        <v>135</v>
       </c>
       <c r="W7" t="s">
         <v>28</v>
@@ -1204,8 +1491,20 @@
       <c r="M8" t="s">
         <v>16</v>
       </c>
+      <c r="N8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="R8" t="s">
         <v>68</v>
+      </c>
+      <c r="S8" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" t="s">
+        <v>136</v>
       </c>
       <c r="W8" t="s">
         <v>29</v>
@@ -1255,8 +1554,20 @@
       <c r="M9" t="s">
         <v>17</v>
       </c>
+      <c r="N9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="R9" t="s">
         <v>69</v>
+      </c>
+      <c r="S9" t="s">
+        <v>124</v>
+      </c>
+      <c r="T9" t="s">
+        <v>137</v>
       </c>
       <c r="W9" t="s">
         <v>30</v>
@@ -1306,8 +1617,20 @@
       <c r="M10" t="s">
         <v>17</v>
       </c>
+      <c r="N10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="R10" t="s">
         <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>124</v>
+      </c>
+      <c r="T10" t="s">
+        <v>138</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
@@ -1357,8 +1680,20 @@
       <c r="M11" t="s">
         <v>18</v>
       </c>
+      <c r="N11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="R11" t="s">
         <v>71</v>
+      </c>
+      <c r="S11" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" t="s">
+        <v>139</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
@@ -1408,8 +1743,20 @@
       <c r="M12" t="s">
         <v>18</v>
       </c>
+      <c r="N12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="R12" t="s">
         <v>72</v>
+      </c>
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" t="s">
+        <v>140</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
@@ -1459,8 +1806,20 @@
       <c r="M13" t="s">
         <v>19</v>
       </c>
+      <c r="N13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>108</v>
+      </c>
       <c r="R13" t="s">
         <v>73</v>
+      </c>
+      <c r="S13" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" t="s">
+        <v>141</v>
       </c>
       <c r="W13" t="s">
         <v>34</v>
@@ -1510,8 +1869,20 @@
       <c r="M14" t="s">
         <v>19</v>
       </c>
+      <c r="N14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>110</v>
+      </c>
       <c r="R14" t="s">
         <v>74</v>
+      </c>
+      <c r="S14" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" t="s">
+        <v>142</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
@@ -1561,8 +1932,20 @@
       <c r="M15" t="s">
         <v>19</v>
       </c>
+      <c r="N15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="R15" t="s">
         <v>75</v>
+      </c>
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" t="s">
+        <v>143</v>
       </c>
       <c r="W15" t="s">
         <v>36</v>
@@ -1612,8 +1995,20 @@
       <c r="M16" t="s">
         <v>20</v>
       </c>
+      <c r="N16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>113</v>
+      </c>
       <c r="R16" t="s">
         <v>76</v>
+      </c>
+      <c r="S16" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" t="s">
+        <v>144</v>
       </c>
       <c r="W16" t="s">
         <v>37</v>
@@ -1663,8 +2058,20 @@
       <c r="M17" t="s">
         <v>20</v>
       </c>
+      <c r="N17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
       <c r="R17" t="s">
         <v>77</v>
+      </c>
+      <c r="S17" t="s">
+        <v>127</v>
+      </c>
+      <c r="T17" t="s">
+        <v>145</v>
       </c>
       <c r="W17" t="s">
         <v>39</v>
@@ -1715,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O18" s="6" t="s">
         <v>84</v>
@@ -1724,10 +2131,10 @@
         <v>78</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="U18" s="3"/>
       <c r="W18" t="s">
@@ -1778,8 +2185,20 @@
       <c r="M19" t="s">
         <v>22</v>
       </c>
+      <c r="N19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>116</v>
+      </c>
       <c r="R19" t="s">
         <v>79</v>
+      </c>
+      <c r="S19" t="s">
+        <v>129</v>
+      </c>
+      <c r="T19" t="s">
+        <v>147</v>
       </c>
       <c r="W19" t="s">
         <v>40</v>

--- a/alola_form.xlsx
+++ b/alola_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14840" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="167">
   <si>
     <t>HP</t>
   </si>
@@ -169,350 +169,444 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>阿罗拉小拉达</t>
+  </si>
+  <si>
+    <t>阿罗拉拉达</t>
+  </si>
+  <si>
+    <t>阿罗拉雷丘</t>
+  </si>
+  <si>
+    <t>阿罗拉穿山鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉穿山王</t>
+  </si>
+  <si>
+    <t>阿罗拉六尾</t>
+  </si>
+  <si>
+    <t>阿罗拉九尾</t>
+  </si>
+  <si>
+    <t>阿罗拉地鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉三地鼠</t>
+  </si>
+  <si>
+    <t>阿罗拉喵喵</t>
+  </si>
+  <si>
+    <t>阿罗拉猫老大</t>
+  </si>
+  <si>
+    <t>阿罗拉小拳石</t>
+  </si>
+  <si>
+    <t>阿罗拉隆隆石</t>
+  </si>
+  <si>
+    <t>阿罗拉隆隆岩</t>
+  </si>
+  <si>
+    <t>阿罗拉臭泥</t>
+  </si>
+  <si>
+    <t>阿罗拉臭臭泥</t>
+  </si>
+  <si>
+    <t>阿罗拉椰蛋树</t>
+  </si>
+  <si>
+    <t>阿罗拉嘎啦嘎啦</t>
+  </si>
+  <si>
+    <t>fast move</t>
+  </si>
+  <si>
+    <t>charge move</t>
+  </si>
+  <si>
+    <t>fast move no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charge move no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dragon Pulse(--)Seed Bomb(--)Solar Beam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy fast</t>
+  </si>
+  <si>
+    <t>legacy charge</t>
+  </si>
+  <si>
+    <t>legacy fast no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legacy charge no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet Seed(--)Dragon Tail(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spark(--)Volt Switch(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wild Charge(--)Thunder Punch(--)Psychic(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tackle(--)Quick Attack(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Hyper Fang(--)Shadow Ball(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bite(--)Quick Attack(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Hyper Fang(--)Hyper Beam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal Claw(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Gyro Ball(--)Night Slash(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Gyro Ball(--)Bulldoze(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zen Headbutt(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Ice Beam(--)Dark Pulse(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feint Attack(--)Powder Snow(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Ice Beam(--)Dazzling Gleam(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud Slap(--)Metal Claw(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dig(--)Mud Bomb(--)Rock Tomb(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earthquake(--)Mud Bomb(--)Iron Head(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Night Slash(--)Dark Pulse(--)Foul Play(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Foul Play(--)Dark Pulse(--)Play Rough(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock Slide(--)Rock Tomb(--)Thunderbolt(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rock Throw(--)Volt Switch(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thunderbolt(--)Stone Edge(--)Rock Blast(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone Edge(--)Rock Blast(--)Wild Charge'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Jab(--)Bite(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crunch(--)Gunk Shot(--)Sludge Bomb(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Pulse(--)Gunk Shot(--)Sludge Wave(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex(--)Rock Smash(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone Club(--)Shadow Ball(--)Fire Blast(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scratch(--)Bite(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,38,</t>
+  </si>
+  <si>
+    <t>4,38,</t>
+  </si>
+  <si>
+    <t>10,13,</t>
+  </si>
+  <si>
+    <t>56,35,</t>
+  </si>
+  <si>
+    <t>51,35,</t>
+  </si>
+  <si>
+    <t>5,35,</t>
+  </si>
+  <si>
+    <t>32,56,</t>
+  </si>
+  <si>
+    <t>39,4,</t>
+  </si>
+  <si>
+    <t>53,13,</t>
+  </si>
+  <si>
+    <t>48,4,</t>
+  </si>
+  <si>
+    <t>30,9,</t>
+  </si>
+  <si>
+    <t>27,16,</t>
+  </si>
+  <si>
+    <t>8,80,51,</t>
+  </si>
+  <si>
+    <t>8,80,78,</t>
+  </si>
+  <si>
+    <t>17,16,99,</t>
+  </si>
+  <si>
+    <t>76,110,7,</t>
+  </si>
+  <si>
+    <t>76,110,64,</t>
+  </si>
+  <si>
+    <t>76,72,6,</t>
+  </si>
+  <si>
+    <t>76,72,22,</t>
+  </si>
+  <si>
+    <t>69,66,105,</t>
+  </si>
+  <si>
+    <t>63,66,108,</t>
+  </si>
+  <si>
+    <t>7,6,5,</t>
+  </si>
+  <si>
+    <t>5,6,24,</t>
+  </si>
+  <si>
+    <t>101,105,20,</t>
+  </si>
+  <si>
+    <t>20,104,102,</t>
+  </si>
+  <si>
+    <t>104,102,17,</t>
+  </si>
+  <si>
+    <t>8,91,88,</t>
+  </si>
+  <si>
+    <t>6,91,89,</t>
+  </si>
+  <si>
+    <t>9,53,55,</t>
+  </si>
+  <si>
+    <t>65,51,35,</t>
+  </si>
+  <si>
+    <t>Alolan Rattata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Raticate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Raichu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Sandshrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Sandslash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Vulpix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Ninetales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Diglett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Dugtrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Meowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Persian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Geodude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Graveler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Grimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Muk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Exeggutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Marowak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Alola Rattata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Raticate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Raichu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Sandshrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Sandslash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Vulpix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Ninetales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Diglett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Dugtrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Meowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Persian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Geodude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Graveler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Grimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Muk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Exeggutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Alola Marowak</t>
-  </si>
-  <si>
-    <t>阿罗拉小拉达</t>
-  </si>
-  <si>
-    <t>阿罗拉拉达</t>
-  </si>
-  <si>
-    <t>阿罗拉雷丘</t>
-  </si>
-  <si>
-    <t>阿罗拉穿山鼠</t>
-  </si>
-  <si>
-    <t>阿罗拉穿山王</t>
-  </si>
-  <si>
-    <t>阿罗拉六尾</t>
-  </si>
-  <si>
-    <t>阿罗拉九尾</t>
-  </si>
-  <si>
-    <t>阿罗拉地鼠</t>
-  </si>
-  <si>
-    <t>阿罗拉三地鼠</t>
-  </si>
-  <si>
-    <t>阿罗拉喵喵</t>
-  </si>
-  <si>
-    <t>阿罗拉猫老大</t>
-  </si>
-  <si>
-    <t>阿罗拉小拳石</t>
-  </si>
-  <si>
-    <t>阿罗拉隆隆石</t>
-  </si>
-  <si>
-    <t>阿罗拉隆隆岩</t>
-  </si>
-  <si>
-    <t>阿罗拉臭泥</t>
-  </si>
-  <si>
-    <t>阿罗拉臭臭泥</t>
-  </si>
-  <si>
-    <t>阿罗拉椰蛋树</t>
-  </si>
-  <si>
-    <t>阿罗拉嘎啦嘎啦</t>
-  </si>
-  <si>
-    <t>fast move</t>
-  </si>
-  <si>
-    <t>charge move</t>
-  </si>
-  <si>
-    <t>fast move no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charge move no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dragon Pulse(--)Seed Bomb(--)Solar Beam(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legacy fast</t>
-  </si>
-  <si>
-    <t>legacy charge</t>
-  </si>
-  <si>
-    <t>legacy fast no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>legacy charge no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet Seed(--)Dragon Tail(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spark(--)Volt Switch(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wild Charge(--)Thunder Punch(--)Psychic(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tackle(--)Quick Attack(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crunch(--)Hyper Fang(--)Shadow Ball(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bite(--)Quick Attack(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crunch(--)Hyper Fang(--)Hyper Beam(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Metal Claw(--)Powder Snow(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blizzard(--)Gyro Ball(--)Night Slash(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blizzard(--)Gyro Ball(--)Bulldoze(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zen Headbutt(--)Powder Snow(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blizzard(--)Ice Beam(--)Dark Pulse(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Feint Attack(--)Powder Snow(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blizzard(--)Ice Beam(--)Dazzling Gleam(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mud Slap(--)Metal Claw(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dig(--)Mud Bomb(--)Rock Tomb(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Earthquake(--)Mud Bomb(--)Iron Head(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Night Slash(--)Dark Pulse(--)Foul Play(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Foul Play(--)Dark Pulse(--)Play Rough(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rock Slide(--)Rock Tomb(--)Thunderbolt(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rock Throw(--)Volt Switch(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thunderbolt(--)Stone Edge(--)Rock Blast(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone Edge(--)Rock Blast(--)Wild Charge'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Poison Jab(--)Bite(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Crunch(--)Gunk Shot(--)Sludge Bomb(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark Pulse(--)Gunk Shot(--)Sludge Wave(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hex(--)Rock Smash(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone Club(--)Shadow Ball(--)Fire Blast(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scratch(--)Bite(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,38,</t>
-  </si>
-  <si>
-    <t>4,38,</t>
-  </si>
-  <si>
-    <t>10,13,</t>
-  </si>
-  <si>
-    <t>56,35,</t>
-  </si>
-  <si>
-    <t>51,35,</t>
-  </si>
-  <si>
-    <t>5,35,</t>
-  </si>
-  <si>
-    <t>32,56,</t>
-  </si>
-  <si>
-    <t>39,4,</t>
-  </si>
-  <si>
-    <t>53,13,</t>
-  </si>
-  <si>
-    <t>48,4,</t>
-  </si>
-  <si>
-    <t>30,9,</t>
-  </si>
-  <si>
-    <t>27,16,</t>
-  </si>
-  <si>
-    <t>8,80,51,</t>
-  </si>
-  <si>
-    <t>8,80,78,</t>
-  </si>
-  <si>
-    <t>17,16,99,</t>
-  </si>
-  <si>
-    <t>76,110,7,</t>
-  </si>
-  <si>
-    <t>76,110,64,</t>
-  </si>
-  <si>
-    <t>76,72,6,</t>
-  </si>
-  <si>
-    <t>76,72,22,</t>
-  </si>
-  <si>
-    <t>69,66,105,</t>
-  </si>
-  <si>
-    <t>63,66,108,</t>
-  </si>
-  <si>
-    <t>7,6,5,</t>
-  </si>
-  <si>
-    <t>5,6,24,</t>
-  </si>
-  <si>
-    <t>101,105,20,</t>
-  </si>
-  <si>
-    <t>20,104,102,</t>
-  </si>
-  <si>
-    <t>104,102,17,</t>
-  </si>
-  <si>
-    <t>8,91,88,</t>
-  </si>
-  <si>
-    <t>6,91,89,</t>
-  </si>
-  <si>
-    <t>9,53,55,</t>
-  </si>
-  <si>
-    <t>65,51,35,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -587,8 +681,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,7 +728,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="35">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -647,6 +745,8 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -662,6 +762,8 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -990,15 +1092,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T19"/>
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1039,42 +1141,45 @@
         <v>41</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="R1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="X1" s="5" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
@@ -1114,30 +1219,33 @@
         <v>12</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="T2" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
       </c>
+      <c r="X2" t="s">
+        <v>148</v>
+      </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>75</v>
@@ -1177,30 +1285,33 @@
         <v>12</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="T3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="W3" t="s">
         <v>24</v>
       </c>
+      <c r="X3" t="s">
+        <v>149</v>
+      </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -1240,30 +1351,33 @@
         <v>13</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="T4" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
       </c>
+      <c r="X4" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -1303,30 +1417,33 @@
         <v>14</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="T5" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
+      <c r="X5" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2">
         <v>75</v>
@@ -1366,30 +1483,33 @@
         <v>14</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="T6" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
       </c>
+      <c r="X6" t="s">
+        <v>152</v>
+      </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>135</v>
       </c>
       <c r="C7" s="2">
         <v>38</v>
@@ -1429,30 +1549,33 @@
         <v>15</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="R7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="T7" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="W7" t="s">
         <v>28</v>
       </c>
+      <c r="X7" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="C8" s="2">
         <v>73</v>
@@ -1492,30 +1615,33 @@
         <v>16</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="R8" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="T8" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="W8" t="s">
         <v>29</v>
       </c>
+      <c r="X8" t="s">
+        <v>154</v>
+      </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -1555,30 +1681,33 @@
         <v>17</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="R9" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="T9" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="W9" t="s">
         <v>30</v>
       </c>
+      <c r="X9" t="s">
+        <v>155</v>
+      </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C10" s="2">
         <v>35</v>
@@ -1618,30 +1747,33 @@
         <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="S10" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="T10" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
       </c>
+      <c r="X10" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C11" s="2">
         <v>40</v>
@@ -1681,30 +1813,33 @@
         <v>18</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="R11" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="T11" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
       </c>
+      <c r="X11" t="s">
+        <v>157</v>
+      </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>140</v>
       </c>
       <c r="C12" s="2">
         <v>65</v>
@@ -1744,30 +1879,33 @@
         <v>18</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R12" t="s">
+        <v>54</v>
+      </c>
+      <c r="S12" t="s">
         <v>107</v>
       </c>
-      <c r="R12" t="s">
-        <v>72</v>
-      </c>
-      <c r="S12" t="s">
-        <v>125</v>
-      </c>
       <c r="T12" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
       </c>
+      <c r="X12" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2">
         <v>40</v>
@@ -1807,30 +1945,33 @@
         <v>19</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R13" t="s">
+        <v>55</v>
+      </c>
+      <c r="S13" t="s">
         <v>108</v>
       </c>
-      <c r="R13" t="s">
-        <v>73</v>
-      </c>
-      <c r="S13" t="s">
-        <v>126</v>
-      </c>
       <c r="T13" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="W13" t="s">
         <v>34</v>
       </c>
+      <c r="X13" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="C14" s="2">
         <v>55</v>
@@ -1870,30 +2011,33 @@
         <v>19</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="R14" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="T14" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="C15" s="2">
         <v>80</v>
@@ -1933,30 +2077,33 @@
         <v>19</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="R15" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="T15" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="W15" t="s">
         <v>36</v>
       </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2">
         <v>80</v>
@@ -1996,30 +2143,33 @@
         <v>20</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="R16" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="T16" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="W16" t="s">
         <v>37</v>
       </c>
+      <c r="X16" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2">
         <v>105</v>
@@ -2059,30 +2209,33 @@
         <v>20</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="R17" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" t="s">
         <v>127</v>
-      </c>
-      <c r="T17" t="s">
-        <v>145</v>
       </c>
       <c r="W17" t="s">
         <v>39</v>
       </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="C18" s="2">
         <v>95</v>
@@ -2122,31 +2275,34 @@
         <v>21</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="R18" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="S18" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T18" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="U18" s="3"/>
       <c r="W18" t="s">
         <v>38</v>
       </c>
+      <c r="X18" t="s">
+        <v>164</v>
+      </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
@@ -2186,25 +2342,28 @@
         <v>22</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="R19" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="S19" t="s">
+        <v>111</v>
+      </c>
+      <c r="T19" t="s">
         <v>129</v>
-      </c>
-      <c r="T19" t="s">
-        <v>147</v>
       </c>
       <c r="W19" t="s">
         <v>40</v>
       </c>
+      <c r="X19" t="s">
+        <v>165</v>
+      </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>

--- a/alola_form.xlsx
+++ b/alola_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14760" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="169">
   <si>
     <t>HP</t>
   </si>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Blizzard(--)Ice Beam(--)Dazzling Gleam(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mud Slap(--)Metal Claw(--)'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,265 +343,278 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Crunch(--)Gunk Shot(--)Sludge Bomb(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Pulse(--)Gunk Shot(--)Sludge Wave(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hex(--)Rock Smash(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bone Club(--)Shadow Ball(--)Fire Blast(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scratch(--)Bite(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36,38,</t>
+  </si>
+  <si>
+    <t>4,38,</t>
+  </si>
+  <si>
+    <t>10,13,</t>
+  </si>
+  <si>
+    <t>56,35,</t>
+  </si>
+  <si>
+    <t>51,35,</t>
+  </si>
+  <si>
+    <t>5,35,</t>
+  </si>
+  <si>
+    <t>32,56,</t>
+  </si>
+  <si>
+    <t>39,4,</t>
+  </si>
+  <si>
+    <t>53,13,</t>
+  </si>
+  <si>
+    <t>48,4,</t>
+  </si>
+  <si>
+    <t>30,9,</t>
+  </si>
+  <si>
+    <t>27,16,</t>
+  </si>
+  <si>
+    <t>8,80,51,</t>
+  </si>
+  <si>
+    <t>8,80,78,</t>
+  </si>
+  <si>
+    <t>17,16,99,</t>
+  </si>
+  <si>
+    <t>76,110,7,</t>
+  </si>
+  <si>
+    <t>76,110,64,</t>
+  </si>
+  <si>
+    <t>76,72,6,</t>
+  </si>
+  <si>
+    <t>69,66,105,</t>
+  </si>
+  <si>
+    <t>63,66,108,</t>
+  </si>
+  <si>
+    <t>7,6,5,</t>
+  </si>
+  <si>
+    <t>5,6,24,</t>
+  </si>
+  <si>
+    <t>101,105,20,</t>
+  </si>
+  <si>
+    <t>20,104,102,</t>
+  </si>
+  <si>
+    <t>104,102,17,</t>
+  </si>
+  <si>
+    <t>8,91,88,</t>
+  </si>
+  <si>
+    <t>6,91,89,</t>
+  </si>
+  <si>
+    <t>9,53,55,</t>
+  </si>
+  <si>
+    <t>65,51,35,</t>
+  </si>
+  <si>
+    <t>Alolan Rattata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Raticate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Raichu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Sandshrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Sandslash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Vulpix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Ninetales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Diglett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Dugtrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Meowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Persian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Geodude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Graveler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Grimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Muk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Exeggutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alolan Marowak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Rattata</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Raticate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Raichu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Sandshrew</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Sandslash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Vulpix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Ninetales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Diglett</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Dugtrio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Meowth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Persian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Geodude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Graveler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Grimer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Muk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Exeggutor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alola Marowak</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alterName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blizzard(--)Ice Beam(--)Dazzling Gleam(--)Psyshock(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76,72,22,97,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poison Jab(--)Bite(--)Snarl(--)'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Poison Jab(--)Bite(--)'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Crunch(--)Gunk Shot(--)Sludge Bomb(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dark Pulse(--)Gunk Shot(--)Sludge Wave(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hex(--)Rock Smash(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bone Club(--)Shadow Ball(--)Fire Blast(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scratch(--)Bite(--)'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36,38,</t>
-  </si>
-  <si>
-    <t>4,38,</t>
-  </si>
-  <si>
-    <t>10,13,</t>
-  </si>
-  <si>
-    <t>56,35,</t>
-  </si>
-  <si>
-    <t>51,35,</t>
-  </si>
-  <si>
-    <t>5,35,</t>
-  </si>
-  <si>
-    <t>32,56,</t>
-  </si>
-  <si>
-    <t>39,4,</t>
-  </si>
-  <si>
-    <t>53,13,</t>
-  </si>
-  <si>
-    <t>48,4,</t>
-  </si>
-  <si>
-    <t>30,9,</t>
-  </si>
-  <si>
-    <t>27,16,</t>
-  </si>
-  <si>
-    <t>8,80,51,</t>
-  </si>
-  <si>
-    <t>8,80,78,</t>
-  </si>
-  <si>
-    <t>17,16,99,</t>
-  </si>
-  <si>
-    <t>76,110,7,</t>
-  </si>
-  <si>
-    <t>76,110,64,</t>
-  </si>
-  <si>
-    <t>76,72,6,</t>
-  </si>
-  <si>
-    <t>76,72,22,</t>
-  </si>
-  <si>
-    <t>69,66,105,</t>
-  </si>
-  <si>
-    <t>63,66,108,</t>
-  </si>
-  <si>
-    <t>7,6,5,</t>
-  </si>
-  <si>
-    <t>5,6,24,</t>
-  </si>
-  <si>
-    <t>101,105,20,</t>
-  </si>
-  <si>
-    <t>20,104,102,</t>
-  </si>
-  <si>
-    <t>104,102,17,</t>
-  </si>
-  <si>
-    <t>8,91,88,</t>
-  </si>
-  <si>
-    <t>6,91,89,</t>
-  </si>
-  <si>
-    <t>9,53,55,</t>
-  </si>
-  <si>
-    <t>65,51,35,</t>
-  </si>
-  <si>
-    <t>Alolan Rattata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Raticate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Raichu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Sandshrew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Sandslash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Vulpix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Ninetales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Diglett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Dugtrio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Meowth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Persian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Geodude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Graveler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Grimer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Muk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Exeggutor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alolan Marowak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Rattata</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Raticate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Raichu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Sandshrew</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Sandslash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Vulpix</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Ninetales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Diglett</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Dugtrio</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Meowth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Persian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Geodude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Graveler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Golem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Grimer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Muk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Exeggutor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alola Marowak</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alterName</t>
+    <t>48,4,7,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1171,7 +1180,7 @@
         <v>11</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:24">
@@ -1179,7 +1188,7 @@
         <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2">
         <v>30</v>
@@ -1204,15 +1213,15 @@
         <v>253</v>
       </c>
       <c r="J2" s="3">
-        <f>2*C2</f>
-        <v>60</v>
+        <f>FLOOR(1.75*C2+50,1)</f>
+        <v>102</v>
       </c>
       <c r="K2" s="3">
         <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(F2,D2)+MIN(F2,D2)),0)),0)</f>
         <v>103</v>
       </c>
       <c r="L2" s="3">
-        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(7*MAX(G2,E2)+MIN(G2,E2)),0)),0)</f>
+        <f>ROUND((1+(H2-75)/500)*(ROUND(0.25*(5*MAX(G2,E2)+3*MIN(G2,E2)),0)),0)</f>
         <v>70</v>
       </c>
       <c r="M2" t="s">
@@ -1228,16 +1237,16 @@
         <v>44</v>
       </c>
       <c r="S2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W2" t="s">
         <v>23</v>
       </c>
       <c r="X2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1245,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2">
         <v>75</v>
@@ -1270,16 +1279,16 @@
         <v>413</v>
       </c>
       <c r="J3" s="3">
-        <f t="shared" ref="J3:J19" si="1">2*C3</f>
-        <v>150</v>
+        <f t="shared" ref="J3:J19" si="1">FLOOR(1.75*C3+50,1)</f>
+        <v>181</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K19" si="2">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(F3,D3)+MIN(F3,D3)),0)),0)</f>
         <v>135</v>
       </c>
       <c r="L3" s="3">
-        <f t="shared" ref="L3:L19" si="3">ROUND((1+(H3-75)/500)*(ROUND(0.25*(7*MAX(G3,E3)+MIN(G3,E3)),0)),0)</f>
-        <v>159</v>
+        <f t="shared" ref="L3:L19" si="3">ROUND((1+(H3-75)/500)*(ROUND(0.25*(5*MAX(G3,E3)+3*MIN(G3,E3)),0)),0)</f>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
         <v>12</v>
@@ -1294,16 +1303,16 @@
         <v>45</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="T3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="W3" t="s">
         <v>24</v>
       </c>
       <c r="X3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1311,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2">
         <v>60</v>
@@ -1337,7 +1346,7 @@
       </c>
       <c r="J4" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="2"/>
@@ -1345,7 +1354,7 @@
       </c>
       <c r="L4" s="3">
         <f t="shared" si="3"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="M4" t="s">
         <v>13</v>
@@ -1360,16 +1369,16 @@
         <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="T4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="W4" t="s">
         <v>25</v>
       </c>
       <c r="X4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1377,7 +1386,7 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
@@ -1403,7 +1412,7 @@
       </c>
       <c r="J5" s="3">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="2"/>
@@ -1411,7 +1420,7 @@
       </c>
       <c r="L5" s="3">
         <f t="shared" si="3"/>
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="M5" t="s">
         <v>14</v>
@@ -1426,16 +1435,16 @@
         <v>47</v>
       </c>
       <c r="S5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1443,7 +1452,7 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2">
         <v>75</v>
@@ -1469,7 +1478,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="2"/>
@@ -1477,7 +1486,7 @@
       </c>
       <c r="L6" s="3">
         <f t="shared" si="3"/>
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="M6" t="s">
         <v>14</v>
@@ -1492,16 +1501,16 @@
         <v>48</v>
       </c>
       <c r="S6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="T6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="W6" t="s">
         <v>27</v>
       </c>
       <c r="X6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1509,7 +1518,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7" s="2">
         <v>38</v>
@@ -1535,7 +1544,7 @@
       </c>
       <c r="J7" s="3">
         <f t="shared" si="1"/>
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="2"/>
@@ -1543,7 +1552,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" si="3"/>
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="M7" t="s">
         <v>15</v>
@@ -1558,16 +1567,16 @@
         <v>49</v>
       </c>
       <c r="S7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="T7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="W7" t="s">
         <v>28</v>
       </c>
       <c r="X7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1575,7 +1584,7 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2">
         <v>73</v>
@@ -1601,7 +1610,7 @@
       </c>
       <c r="J8" s="3">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="2"/>
@@ -1609,7 +1618,7 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="3"/>
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="M8" t="s">
         <v>16</v>
@@ -1618,22 +1627,22 @@
         <v>83</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="R8" t="s">
         <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T8" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="W8" t="s">
         <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1641,7 +1650,7 @@
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -1667,7 +1676,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="2"/>
@@ -1675,31 +1684,31 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="3"/>
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
       </c>
       <c r="N9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="R9" t="s">
         <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="W9" t="s">
         <v>30</v>
       </c>
       <c r="X9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1707,7 +1716,7 @@
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2">
         <v>35</v>
@@ -1733,7 +1742,7 @@
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="2"/>
@@ -1741,31 +1750,31 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="3"/>
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R10" t="s">
         <v>52</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="W10" t="s">
         <v>31</v>
       </c>
       <c r="X10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1773,7 +1782,7 @@
         <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="2">
         <v>40</v>
@@ -1799,7 +1808,7 @@
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="2"/>
@@ -1807,31 +1816,31 @@
       </c>
       <c r="L11" s="3">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
         <v>53</v>
       </c>
       <c r="S11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="W11" t="s">
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1839,7 +1848,7 @@
         <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2">
         <v>65</v>
@@ -1865,7 +1874,7 @@
       </c>
       <c r="J12" s="3">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
@@ -1873,31 +1882,31 @@
       </c>
       <c r="L12" s="3">
         <f t="shared" si="3"/>
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R12" t="s">
         <v>54</v>
       </c>
       <c r="S12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W12" t="s">
         <v>33</v>
       </c>
       <c r="X12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1905,7 +1914,7 @@
         <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C13" s="2">
         <v>40</v>
@@ -1931,7 +1940,7 @@
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="2"/>
@@ -1939,31 +1948,31 @@
       </c>
       <c r="L13" s="3">
         <f t="shared" si="3"/>
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R13" t="s">
         <v>55</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="W13" t="s">
         <v>34</v>
       </c>
       <c r="X13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1971,7 +1980,7 @@
         <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C14" s="2">
         <v>55</v>
@@ -1997,7 +2006,7 @@
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="2"/>
@@ -2005,31 +2014,31 @@
       </c>
       <c r="L14" s="3">
         <f t="shared" si="3"/>
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s">
         <v>19</v>
       </c>
       <c r="N14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="R14" t="s">
         <v>56</v>
       </c>
       <c r="S14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="W14" t="s">
         <v>35</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -2037,7 +2046,7 @@
         <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="2">
         <v>80</v>
@@ -2063,7 +2072,7 @@
       </c>
       <c r="J15" s="3">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="2"/>
@@ -2071,31 +2080,31 @@
       </c>
       <c r="L15" s="3">
         <f t="shared" si="3"/>
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s">
         <v>19</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R15" t="s">
         <v>57</v>
       </c>
       <c r="S15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="W15" t="s">
         <v>36</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -2103,7 +2112,7 @@
         <v>88</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C16" s="2">
         <v>80</v>
@@ -2129,7 +2138,7 @@
       </c>
       <c r="J16" s="3">
         <f t="shared" si="1"/>
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="2"/>
@@ -2143,25 +2152,25 @@
         <v>20</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
         <v>58</v>
       </c>
       <c r="S16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="T16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="W16" t="s">
         <v>37</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2169,7 +2178,7 @@
         <v>89</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="2">
         <v>105</v>
@@ -2195,7 +2204,7 @@
       </c>
       <c r="J17" s="3">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="2"/>
@@ -2203,31 +2212,31 @@
       </c>
       <c r="L17" s="3">
         <f t="shared" si="3"/>
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
       </c>
       <c r="N17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="R17" t="s">
         <v>59</v>
       </c>
       <c r="S17" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
       <c r="T17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W17" t="s">
         <v>39</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2235,7 +2244,7 @@
         <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" s="2">
         <v>95</v>
@@ -2261,7 +2270,7 @@
       </c>
       <c r="J18" s="3">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="2"/>
@@ -2269,7 +2278,7 @@
       </c>
       <c r="L18" s="3">
         <f t="shared" si="3"/>
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s">
         <v>21</v>
@@ -2284,17 +2293,17 @@
         <v>60</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="U18" s="3"/>
       <c r="W18" t="s">
         <v>38</v>
       </c>
       <c r="X18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2302,7 +2311,7 @@
         <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C19" s="2">
         <v>60</v>
@@ -2328,7 +2337,7 @@
       </c>
       <c r="J19" s="3">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="2"/>
@@ -2336,31 +2345,31 @@
       </c>
       <c r="L19" s="3">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s">
         <v>22</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R19" t="s">
         <v>61</v>
       </c>
       <c r="S19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="T19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="W19" t="s">
         <v>40</v>
       </c>
       <c r="X19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:24">
